--- a/scripts/result.xlsx
+++ b/scripts/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,2152 +454,2496 @@
           <t>right_target_price</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>gap_ratio</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>KRW-CELO</t>
+          <t>KRW-TT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>999999</v>
+        <v>0.9442340927923724</v>
       </c>
       <c r="C2" t="n">
-        <v>9999999</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>4090</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>2650003910</v>
+        <v>15.14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>51.91545574636724</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>KRW-ARK</t>
+          <t>KRW-RFR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9883849561727304</v>
+        <v>0.9651146416835096</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="D3" t="n">
-        <v>1440</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>1513</v>
+        <v>17.64</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19.04761904761907</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>KRW-VET</t>
+          <t>KRW-AHT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9875342221490625</v>
+        <v>0.9614688192284865</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="D4" t="n">
-        <v>98.5</v>
+        <v>18.8</v>
       </c>
       <c r="E4" t="n">
-        <v>125.04</v>
+        <v>17.35</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8.357348703170047</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>KRW-XRP</t>
+          <t>KRW-CRE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9853373045269027</v>
+        <v>0.9482119540702777</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1020</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>1057.5</v>
+        <v>14.77</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.327691266079896</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>KRW-BTC</t>
+          <t>KRW-UPP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9839618075362011</v>
+        <v>0.9659263444940087</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D6" t="n">
-        <v>56470000</v>
+        <v>214</v>
       </c>
       <c r="E6" t="n">
-        <v>57379500</v>
+        <v>198.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7.97174571140263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>KRW-LSK</t>
+          <t>KRW-AQT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.98108744256379</v>
+        <v>0.974308985540971</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>3205</v>
+        <v>4480</v>
       </c>
       <c r="E7" t="n">
-        <v>3308</v>
+        <v>4195.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6.781074961268025</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>KRW-KAVA</t>
+          <t>KRW-MFT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9803333472248437</v>
+        <v>0.8949614456975031</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>5410</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>5752</v>
+        <v>14.17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.857445306986592</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>KRW-ETH</t>
+          <t>KRW-META</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.977926349694011</v>
+        <v>0.9640629921851374</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="D9" t="n">
-        <v>4087000</v>
+        <v>125</v>
       </c>
       <c r="E9" t="n">
-        <v>4164100</v>
+        <v>119</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5.042016806722689</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>KRW-STPT</t>
+          <t>KRW-PUNDIX</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.977168503996965</v>
+        <v>0.9641336864310832</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D10" t="n">
-        <v>136</v>
+        <v>1305</v>
       </c>
       <c r="E10" t="n">
-        <v>136.8</v>
+        <v>1246</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.735152487961477</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>KRW-DOT</t>
+          <t>KRW-DAWN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9755050378461065</v>
+        <v>0.9776747260925029</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>26950</v>
+        <v>2725</v>
       </c>
       <c r="E11" t="n">
-        <v>27250</v>
+        <v>2623</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.888677087304613</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>KRW-LINK</t>
+          <t>KRW-MBL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9752544598440231</v>
+        <v>0.8452751882496753</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="D12" t="n">
-        <v>20980</v>
+        <v>16.6</v>
       </c>
       <c r="E12" t="n">
-        <v>21386</v>
+        <v>16.05</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.426791277258571</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>KRW-XEM</t>
+          <t>KRW-AXS</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.973963823322084</v>
+        <v>0.9356906871351034</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D13" t="n">
-        <v>145</v>
+        <v>88780</v>
       </c>
       <c r="E13" t="n">
-        <v>153.6</v>
+        <v>86700</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.399077277970012</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>KRW-XTZ</t>
+          <t>KRW-THETA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9733372228197755</v>
+        <v>0.9627424092834805</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="D14" t="n">
-        <v>4605</v>
+        <v>5170</v>
       </c>
       <c r="E14" t="n">
-        <v>4829</v>
+        <v>5060.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2.163817804564766</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>KRW-BORA</t>
+          <t>KRW-MED</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9732301353786516</v>
+        <v>0.9717913127639694</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D15" t="n">
-        <v>1155</v>
+        <v>68</v>
       </c>
       <c r="E15" t="n">
-        <v>1248</v>
+        <v>66.66</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.010201020102016</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>KRW-STRK</t>
+          <t>KRW-TON</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9728445084701295</v>
+        <v>0.9641626323616399</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="D16" t="n">
-        <v>52150</v>
+        <v>6390</v>
       </c>
       <c r="E16" t="n">
-        <v>55430</v>
+        <v>6281</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.735392453430982</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>KRW-POLY</t>
+          <t>KRW-CBK</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9725805489075928</v>
+        <v>0.9827042214455175</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D17" t="n">
-        <v>619</v>
+        <v>3555</v>
       </c>
       <c r="E17" t="n">
-        <v>641.4</v>
+        <v>3500.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.556920439937152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>KRW-ONG</t>
+          <t>KRW-SSX</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9717397900858709</v>
+        <v>0.9509926148258449</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D18" t="n">
-        <v>1020</v>
+        <v>78.7</v>
       </c>
       <c r="E18" t="n">
-        <v>1081</v>
+        <v>77.54000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.496002063451118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>KRW-HUNT</t>
+          <t>KRW-WAXP</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9704278052094799</v>
+        <v>0.9769279094295803</v>
       </c>
       <c r="C19" t="n">
         <v>0.1</v>
       </c>
       <c r="D19" t="n">
-        <v>1305</v>
+        <v>464</v>
       </c>
       <c r="E19" t="n">
-        <v>1361.5</v>
+        <v>457.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.46512136453094</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>KRW-DAWN</t>
+          <t>KRW-MTL</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9693037093348968</v>
+        <v>0.9509469964803448</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D20" t="n">
-        <v>2475</v>
+        <v>2595</v>
       </c>
       <c r="E20" t="n">
-        <v>2504</v>
+        <v>2558.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.426617158491304</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>KRW-TT</t>
+          <t>KRW-GRS</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9692615222854982</v>
+        <v>0.9807155243125164</v>
       </c>
       <c r="C21" t="n">
         <v>0.1</v>
       </c>
       <c r="D21" t="n">
-        <v>12.4</v>
+        <v>973</v>
       </c>
       <c r="E21" t="n">
-        <v>12.68</v>
+        <v>960.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.311953352769682</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>KRW-MATIC</t>
+          <t>KRW-HUNT</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9687335898642989</v>
+        <v>0.9704278052094799</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D22" t="n">
-        <v>2050</v>
+        <v>1450</v>
       </c>
       <c r="E22" t="n">
-        <v>2102</v>
+        <v>1433</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.18632240055827</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>KRW-MED</t>
+          <t>KRW-MVL</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9678902611280421</v>
+        <v>0.964117493661623</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>63.4</v>
+        <v>17.5</v>
       </c>
       <c r="E23" t="n">
-        <v>63.46</v>
+        <v>17.34</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9227220299884669</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>KRW-GRS</t>
+          <t>KRW-SC</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9677522294591988</v>
+        <v>0.9350703640448946</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D24" t="n">
-        <v>903</v>
+        <v>17.6</v>
       </c>
       <c r="E24" t="n">
-        <v>913.4</v>
+        <v>17.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5714285714285796</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>KRW-WEMIX</t>
+          <t>KRW-DOT</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9675503903654802</v>
+        <v>0.9599181053970643</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="D25" t="n">
-        <v>5820</v>
+        <v>27230</v>
       </c>
       <c r="E25" t="n">
-        <v>6083</v>
+        <v>27084</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.5390636538177521</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>KRW-DKA</t>
+          <t>KRW-SBD</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9673141697016151</v>
+        <v>0.981343017841234</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D26" t="n">
-        <v>138</v>
+        <v>6430</v>
       </c>
       <c r="E26" t="n">
-        <v>140.1</v>
+        <v>6405.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3824838029818125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>KRW-IOTA</t>
+          <t>KRW-ICX</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9653683925852207</v>
+        <v>0.9714193845766774</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D27" t="n">
-        <v>1085</v>
+        <v>1315</v>
       </c>
       <c r="E27" t="n">
-        <v>1129</v>
+        <v>1310</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3816793893129771</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>KRW-CVC</t>
+          <t>KRW-HBAR</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.9652968304530193</v>
+        <v>0.9554475450961624</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D28" t="n">
-        <v>436</v>
+        <v>305</v>
       </c>
       <c r="E28" t="n">
-        <v>483.8</v>
+        <v>304.2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.2629848783694975</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>KRW-NEAR</t>
+          <t>KRW-KNC</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9645301945417156</v>
+        <v>0.9254389030050417</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D29" t="n">
-        <v>16660</v>
+        <v>4035</v>
       </c>
       <c r="E29" t="n">
-        <v>17855</v>
+        <v>4031</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.09923096005953858</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>KRW-PUNDIX</t>
+          <t>KRW-ANKR</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9641336864310832</v>
+        <v>0.9717173984079288</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D30" t="n">
-        <v>1165</v>
+        <v>118</v>
       </c>
       <c r="E30" t="n">
-        <v>1162</v>
+        <v>117.9</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.08481764206954565</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>KRW-T</t>
+          <t>KRW-STEEM</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9640510394643756</v>
+        <v>0.9680059731485678</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="D31" t="n">
-        <v>163</v>
+        <v>517</v>
       </c>
       <c r="E31" t="n">
-        <v>169.6</v>
+        <v>517.7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.1352134440795915</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>KRW-POWR</t>
+          <t>KRW-SNT</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9630913405479047</v>
+        <v>0.9285376875108492</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D32" t="n">
-        <v>727</v>
+        <v>95.3</v>
       </c>
       <c r="E32" t="n">
-        <v>727</v>
+        <v>95.44</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.1466890192791289</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>KRW-LTC</t>
+          <t>KRW-BSV</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9628624941269851</v>
+        <v>0.9360868676415131</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D33" t="n">
-        <v>153700</v>
+        <v>120550</v>
       </c>
       <c r="E33" t="n">
-        <v>163350</v>
+        <v>120800</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.206953642384106</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>KRW-ELF</t>
+          <t>KRW-BTG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9625161460817039</v>
+        <v>0.9418629069245298</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="D34" t="n">
-        <v>498</v>
+        <v>51580</v>
       </c>
       <c r="E34" t="n">
-        <v>529</v>
+        <v>51783</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.3920205472838576</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>KRW-UPP</t>
+          <t>KRW-STMX</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9620738463832639</v>
+        <v>0.911683532682521</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="D35" t="n">
-        <v>176</v>
+        <v>30.2</v>
       </c>
       <c r="E35" t="n">
-        <v>179.6</v>
+        <v>30.33</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.428618529508734</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>KRW-META</t>
+          <t>KRW-LOOM</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9620514449618285</v>
+        <v>0.9491623335565095</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D36" t="n">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="E36" t="n">
-        <v>114.9</v>
+        <v>137.6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.4360465116279029</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>KRW-AHT</t>
+          <t>KRW-SAND</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9614688192284865</v>
+        <v>0.9505618376460139</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="D37" t="n">
-        <v>15.4</v>
+        <v>4405</v>
       </c>
       <c r="E37" t="n">
-        <v>15.93</v>
+        <v>4425</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.4519774011299435</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>KRW-MOC</t>
+          <t>KRW-ATOM</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9614359844214643</v>
+        <v>0.9449885594017207</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D38" t="n">
-        <v>247</v>
+        <v>36440</v>
       </c>
       <c r="E38" t="n">
-        <v>246.7</v>
+        <v>36606</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.4534775719827351</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>KRW-TFUEL</t>
+          <t>KRW-DOGE</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9613766914221168</v>
+        <v>0.9490063903093463</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="D39" t="n">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="E39" t="n">
-        <v>248.7</v>
+        <v>175.8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.4550625711035332</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>KRW-SAND</t>
+          <t>KRW-OMG</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9606052804712135</v>
+        <v>0.9556979067587674</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D40" t="n">
-        <v>4295</v>
+        <v>7295</v>
       </c>
       <c r="E40" t="n">
-        <v>4385</v>
+        <v>7332</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.5046372067648663</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>KRW-MVL</t>
+          <t>KRW-XRP</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9605200403270645</v>
+        <v>0.9853373045269027</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D41" t="n">
-        <v>13.5</v>
+        <v>1020</v>
       </c>
       <c r="E41" t="n">
-        <v>14.14</v>
+        <v>1025.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.5363237445148707</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>KRW-WAXP</t>
+          <t>KRW-QTUM</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9603693840210241</v>
+        <v>0.9481440350633084</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="D42" t="n">
-        <v>427</v>
+        <v>10660</v>
       </c>
       <c r="E42" t="n">
-        <v>437.8</v>
+        <v>10718</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.5411457361448031</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>KRW-BCH</t>
+          <t>KRW-MOC</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.9591593610948865</v>
+        <v>0.9614359844214643</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="D43" t="n">
-        <v>450250</v>
+        <v>273</v>
       </c>
       <c r="E43" t="n">
-        <v>478610</v>
+        <v>274.8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.6550218340611395</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>KRW-JST</t>
+          <t>KRW-CVC</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9589319237163819</v>
+        <v>0.9578306974496383</v>
       </c>
       <c r="C44" t="n">
         <v>0.2</v>
       </c>
       <c r="D44" t="n">
-        <v>110</v>
+        <v>466</v>
       </c>
       <c r="E44" t="n">
-        <v>105.68</v>
+        <v>469.2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.6820119352088637</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>KRW-SBD</t>
+          <t>KRW-MANA</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.9587623231872382</v>
+        <v>0.9457998893142012</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>6155</v>
+        <v>3325</v>
       </c>
       <c r="E45" t="n">
-        <v>6196.5</v>
+        <v>3356.5</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.9384775808133473</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>KRW-ATOM</t>
+          <t>KRW-SXP</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9587283483297914</v>
+        <v>0.9337372816440371</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D46" t="n">
-        <v>35980</v>
+        <v>2000</v>
       </c>
       <c r="E46" t="n">
-        <v>37068</v>
+        <v>2019</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.9410599306587419</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>KRW-ANKR</t>
+          <t>KRW-ARDR</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9571180665867731</v>
+        <v>0.9716640268089267</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="D47" t="n">
-        <v>110</v>
+        <v>322</v>
       </c>
       <c r="E47" t="n">
-        <v>113.4</v>
+        <v>325.1</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.9535527529990842</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>KRW-1INCH</t>
+          <t>KRW-T</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9568812538692671</v>
+        <v>0.95154566041472</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D48" t="n">
-        <v>2200</v>
+        <v>166</v>
       </c>
       <c r="E48" t="n">
-        <v>2317.5</v>
+        <v>167.6</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.9546539379474906</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>KRW-AAVE</t>
+          <t>KRW-QKC</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9561159037657146</v>
+        <v>0.954084140510586</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="D49" t="n">
-        <v>263900</v>
+        <v>32.6</v>
       </c>
       <c r="E49" t="n">
-        <v>303690</v>
+        <v>32.92</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.9720534629404625</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>KRW-WAVES</t>
+          <t>KRW-NEO</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9555733300064964</v>
+        <v>0.944657112300013</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D50" t="n">
-        <v>74180</v>
+        <v>34810</v>
       </c>
       <c r="E50" t="n">
-        <v>63805</v>
+        <v>35196</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-1.096715535856347</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>KRW-HBAR</t>
+          <t>KRW-FLOW</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.955364044733682</v>
+        <v>0.9511745650519255</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D51" t="n">
-        <v>299</v>
+        <v>8835</v>
       </c>
       <c r="E51" t="n">
-        <v>315.5</v>
+        <v>8933</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-1.097055860293294</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>KRW-EOS</t>
+          <t>KRW-MLK</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9550861968838801</v>
+        <v>0.9590465272255329</v>
       </c>
       <c r="C52" t="n">
         <v>0.9</v>
       </c>
       <c r="D52" t="n">
-        <v>3480</v>
+        <v>1280</v>
       </c>
       <c r="E52" t="n">
-        <v>3779</v>
+        <v>1298</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-1.386748844375963</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>KRW-QKC</t>
+          <t>KRW-HIVE</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.954084140510586</v>
+        <v>0.9749693442517544</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D53" t="n">
-        <v>30.7</v>
+        <v>1520</v>
       </c>
       <c r="E53" t="n">
-        <v>29.8</v>
+        <v>1542</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-1.426718547341115</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>KRW-FCT2</t>
+          <t>KRW-ONG</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9538923784081199</v>
+        <v>0.979744236462196</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D54" t="n">
-        <v>191</v>
+        <v>1105</v>
       </c>
       <c r="E54" t="n">
-        <v>156.5</v>
+        <v>1123.5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-1.646639964396974</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>KRW-XLM</t>
+          <t>KRW-WAVES</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9538432479516078</v>
+        <v>0.9262835514968445</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="D55" t="n">
-        <v>280</v>
+        <v>63510</v>
       </c>
       <c r="E55" t="n">
-        <v>293.4</v>
+        <v>64600</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-1.687306501547988</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>KRW-PLA</t>
+          <t>KRW-XEC</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9517644860575035</v>
+        <v>0.9192967859574246</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>1465</v>
+        <v>0.122</v>
       </c>
       <c r="E56" t="n">
-        <v>1739</v>
+        <v>0.1246</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-2.086677367576237</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>KRW-MLK</t>
+          <t>KRW-ALGO</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.9517620477926709</v>
+        <v>0.9326411591652084</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D57" t="n">
-        <v>1180</v>
+        <v>1200</v>
       </c>
       <c r="E57" t="n">
-        <v>1237.5</v>
+        <v>1229</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-2.359641985353946</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>KRW-MANA</t>
+          <t>KRW-ELF</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.9515089203182392</v>
+        <v>0.975088925928925</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="D58" t="n">
-        <v>3245</v>
+        <v>533</v>
       </c>
       <c r="E58" t="n">
-        <v>3398.5</v>
+        <v>546.7</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-2.505944759465894</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>KRW-AVAX</t>
+          <t>KRW-BTC</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.951463763764316</v>
+        <v>0.9837932634971301</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>120450</v>
+        <v>56648000</v>
       </c>
       <c r="E59" t="n">
-        <v>125290</v>
+        <v>58149800</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-2.582640009079997</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>KRW-FLOW</t>
+          <t>KRW-BORA</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.9511745650519255</v>
+        <v>0.9732301353786516</v>
       </c>
       <c r="C60" t="n">
         <v>0.8</v>
       </c>
       <c r="D60" t="n">
-        <v>8445</v>
+        <v>1175</v>
       </c>
       <c r="E60" t="n">
-        <v>9034</v>
+        <v>1208</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-2.731788079470199</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>KRW-SOL</t>
+          <t>KRW-ONT</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9510331037025923</v>
+        <v>0.9691440363526691</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D61" t="n">
-        <v>155450</v>
+        <v>823</v>
       </c>
       <c r="E61" t="n">
-        <v>157120</v>
+        <v>846.5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-2.77613703484938</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>KRW-ENJ</t>
+          <t>KRW-AERGO</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.9508694252646769</v>
+        <v>0.9498002860308461</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="D62" t="n">
-        <v>2275</v>
+        <v>361</v>
       </c>
       <c r="E62" t="n">
-        <v>2301.5</v>
+        <v>371.5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-2.826379542395693</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>KRW-ZIL</t>
+          <t>KRW-CHZ</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9506150120405257</v>
+        <v>0.9711799515203599</v>
       </c>
       <c r="C63" t="n">
         <v>0.6</v>
       </c>
       <c r="D63" t="n">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="E63" t="n">
-        <v>284</v>
+        <v>360.8</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-2.993348115299338</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>KRW-STORJ</t>
+          <t>KRW-POLY</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9503269865582934</v>
+        <v>0.9758649070296952</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="D64" t="n">
-        <v>1660</v>
+        <v>673</v>
       </c>
       <c r="E64" t="n">
-        <v>1956</v>
+        <v>694.1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-3.039907794265959</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>KRW-DOGE</t>
+          <t>KRW-EOS</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.9502947239636929</v>
+        <v>0.9550861968838801</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="D65" t="n">
-        <v>172</v>
+        <v>3555</v>
       </c>
       <c r="E65" t="n">
-        <v>178.4</v>
+        <v>3667</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-3.054267793836924</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>KRW-ICX</t>
+          <t>KRW-GLM</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.9497362433098647</v>
+        <v>0.9508467450160122</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D66" t="n">
-        <v>1195</v>
+        <v>691</v>
       </c>
       <c r="E66" t="n">
-        <v>1232.5</v>
+        <v>713.4</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-3.139893467900194</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>KRW-STMX</t>
+          <t>KRW-ADA</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.9487748902372096</v>
+        <v>0.9419737175303414</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="D67" t="n">
-        <v>26.9</v>
+        <v>1445</v>
       </c>
       <c r="E67" t="n">
-        <v>27.68</v>
+        <v>1492</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-3.150134048257373</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>KRW-BTT</t>
+          <t>KRW-ARK</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.9483472251976619</v>
+        <v>0.9785811009144111</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0027</v>
+        <v>1590</v>
       </c>
       <c r="E68" t="n">
-        <v>0.00261</v>
+        <v>1642.5</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-3.19634703196347</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>KRW-CRE</t>
+          <t>KRW-WEMIX</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.9482119540702777</v>
+        <v>0.9385854639001431</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D69" t="n">
-        <v>12.2</v>
+        <v>5815</v>
       </c>
       <c r="E69" t="n">
-        <v>12.18</v>
+        <v>6009</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-3.228490597437177</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>KRW-QTUM</t>
+          <t>KRW-ORBS</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.9481440350633084</v>
+        <v>0.9411039666670294</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>10340</v>
+        <v>113</v>
       </c>
       <c r="E70" t="n">
-        <v>11570</v>
+        <v>116.9</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-3.336184773310527</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>KRW-SSX</t>
+          <t>KRW-XLM</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9478680832093319</v>
+        <v>0.9538432479516078</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D71" t="n">
-        <v>72.7</v>
+        <v>286</v>
       </c>
       <c r="E71" t="n">
-        <v>85</v>
+        <v>296</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-3.378378378378379</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>KRW-ARDR</t>
+          <t>KRW-MATIC</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9474200920363253</v>
+        <v>0.9396758485714491</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>293</v>
+        <v>2090</v>
       </c>
       <c r="E72" t="n">
-        <v>303.8</v>
+        <v>2165</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-3.464203233256351</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>KRW-GLM</t>
+          <t>KRW-TRX</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9473206203930999</v>
+        <v>0.931299177253055</v>
       </c>
       <c r="C73" t="n">
         <v>0.8</v>
       </c>
       <c r="D73" t="n">
-        <v>669</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>699.9</v>
+        <v>95.71999999999998</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-3.468449644797304</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>KRW-STX</t>
+          <t>KRW-LSK</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.9469104920717493</v>
+        <v>0.9657827123238237</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D74" t="n">
-        <v>1780</v>
+        <v>3305</v>
       </c>
       <c r="E74" t="n">
-        <v>1981</v>
+        <v>3425</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-3.503649635036497</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>KRW-OMG</t>
+          <t>KRW-DKA</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.9469033431299072</v>
+        <v>0.968705988650826</v>
       </c>
       <c r="C75" t="n">
         <v>0.7000000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>6845</v>
+        <v>153</v>
       </c>
       <c r="E75" t="n">
-        <v>6941</v>
+        <v>158.7</v>
+      </c>
+      <c r="F75" t="n">
+        <v>-3.591682419659729</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>KRW-RFR</t>
+          <t>KRW-IOTA</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9468833335077594</v>
+        <v>0.955721384226334</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>15.4</v>
+        <v>1110</v>
       </c>
       <c r="E76" t="n">
-        <v>15.49</v>
+        <v>1156</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-3.97923875432526</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>KRW-GAS</t>
+          <t>KRW-NU</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9467667833949072</v>
+        <v>0.9305457421002944</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D77" t="n">
-        <v>6815</v>
+        <v>580</v>
       </c>
       <c r="E77" t="n">
-        <v>7170</v>
+        <v>604.2</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-4.005296259516723</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>KRW-THETA</t>
+          <t>KRW-LTC</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9466208618491587</v>
+        <v>0.964171839845695</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D78" t="n">
-        <v>5100</v>
+        <v>153950</v>
       </c>
       <c r="E78" t="n">
-        <v>4761</v>
+        <v>160610</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-4.146690741547849</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>KRW-ONT</t>
+          <t>KRW-STRK</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.946230823584261</v>
+        <v>0.9565841802933842</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>802</v>
+        <v>54620</v>
       </c>
       <c r="E79" t="n">
-        <v>889.4</v>
+        <v>57037</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-4.237600154285815</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>KRW-AERGO</t>
+          <t>KRW-BTT</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.9453140498620095</v>
+        <v>0.9483472251976619</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="D80" t="n">
-        <v>348</v>
+        <v>0.0026</v>
       </c>
       <c r="E80" t="n">
-        <v>439.4</v>
+        <v>0.00272</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-4.411764705882364</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>KRW-REP</t>
+          <t>KRW-BAT</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.9446793285588243</v>
+        <v>0.9477560915755441</v>
       </c>
       <c r="C81" t="n">
         <v>0.9</v>
       </c>
       <c r="D81" t="n">
-        <v>19840</v>
+        <v>1110</v>
       </c>
       <c r="E81" t="n">
-        <v>20346</v>
+        <v>1162</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-4.475043029259897</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>KRW-SRM</t>
+          <t>KRW-XTZ</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.9446543288307497</v>
+        <v>0.9238927797037401</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="D82" t="n">
-        <v>4090</v>
+        <v>4960</v>
       </c>
       <c r="E82" t="n">
-        <v>4539.5</v>
+        <v>5192.5</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-4.477611940298507</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>KRW-CRO</t>
+          <t>KRW-LINK</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.9445651261447904</v>
+        <v>0.9429717361129613</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D83" t="n">
-        <v>572</v>
+        <v>21220</v>
       </c>
       <c r="E83" t="n">
-        <v>593.8</v>
+        <v>22220</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-4.5004500450045</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>KRW-CBK</t>
+          <t>KRW-JST</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.9432749542194113</v>
+        <v>0.9543203521710256</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D84" t="n">
-        <v>3235</v>
+        <v>103</v>
       </c>
       <c r="E84" t="n">
-        <v>3332</v>
+        <v>107.88</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-4.523544679273263</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>KRW-ETC</t>
+          <t>KRW-STPT</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.9428423122346427</v>
+        <v>0.963495321814913</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="D85" t="n">
-        <v>58860</v>
+        <v>143</v>
       </c>
       <c r="E85" t="n">
-        <v>62136</v>
+        <v>149.8</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-4.53938584779707</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>KRW-HIVE</t>
+          <t>KRW-STX</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.9420654009429217</v>
+        <v>0.9469104920717493</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="D86" t="n">
-        <v>1420</v>
+        <v>1810</v>
       </c>
       <c r="E86" t="n">
-        <v>1489</v>
+        <v>1898.5</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-4.661574927574401</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>KRW-ADA</t>
+          <t>KRW-XEM</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.9419737175303414</v>
+        <v>0.973963823322084</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D87" t="n">
-        <v>1430</v>
+        <v>152</v>
       </c>
       <c r="E87" t="n">
-        <v>1488.5</v>
+        <v>159.6</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-4.761904761904758</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>KRW-AQT</t>
+          <t>KRW-CRO</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.9416469458892001</v>
+        <v>0.9445651261447904</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>4015</v>
+        <v>588</v>
       </c>
       <c r="E88" t="n">
-        <v>3862</v>
+        <v>617.6</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-4.792746113989641</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>KRW-ORBS</t>
+          <t>KRW-1INCH</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.9411039666670294</v>
+        <v>0.9470086791807383</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="D89" t="n">
-        <v>109</v>
+        <v>2330</v>
       </c>
       <c r="E89" t="n">
-        <v>108.8</v>
+        <v>2451</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-4.936760505915952</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>KRW-SC</t>
+          <t>KRW-ETC</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.9407947767073999</v>
+        <v>0.9428423122346427</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D90" t="n">
-        <v>15.1</v>
+        <v>57470</v>
       </c>
       <c r="E90" t="n">
-        <v>16.3</v>
+        <v>60532</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-5.058481464349435</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>KRW-TON</t>
+          <t>KRW-PLA</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9396924058609065</v>
+        <v>0.9831921580003564</v>
       </c>
       <c r="C91" t="n">
         <v>0.8</v>
       </c>
       <c r="D91" t="n">
-        <v>5700</v>
+        <v>1455</v>
       </c>
       <c r="E91" t="n">
-        <v>5805</v>
+        <v>1535</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-5.211726384364821</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>KRW-STRAX</t>
+          <t>KRW-HUM</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9394867547724574</v>
+        <v>0.9603252955802323</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D92" t="n">
-        <v>1725</v>
+        <v>455</v>
       </c>
       <c r="E92" t="n">
-        <v>1689</v>
+        <v>480.6</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-5.326674989596342</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>KRW-STEEM</t>
+          <t>KRW-BCH</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.9393605588261729</v>
+        <v>0.9591593610948865</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="D93" t="n">
-        <v>488</v>
+        <v>461800</v>
       </c>
       <c r="E93" t="n">
-        <v>515.7</v>
+        <v>487790</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-5.328112507431477</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>KRW-BSV</t>
+          <t>KRW-ETH</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.9360868676415131</v>
+        <v>0.977926349694011</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D94" t="n">
-        <v>118000</v>
+        <v>4231000</v>
       </c>
       <c r="E94" t="n">
-        <v>124075</v>
+        <v>4469600</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-5.338285305172722</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>KRW-TRX</t>
+          <t>KRW-TFUEL</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.9359525176191806</v>
+        <v>0.9613766914221168</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D95" t="n">
-        <v>90.90000000000001</v>
+        <v>264</v>
       </c>
       <c r="E95" t="n">
-        <v>95.68000000000001</v>
+        <v>278.9</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-5.342416636787371</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>KRW-AXS</t>
+          <t>KRW-ENJ</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9356906871351034</v>
+        <v>0.9462879342202885</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>77540</v>
+        <v>2320</v>
       </c>
       <c r="E96" t="n">
-        <v>82263</v>
+        <v>2455</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-5.4989816700611</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>KRW-BAT</t>
+          <t>KRW-STORJ</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.9353645038259719</v>
+        <v>0.9503269865582934</v>
       </c>
       <c r="C97" t="n">
         <v>0.9</v>
       </c>
       <c r="D97" t="n">
-        <v>1080</v>
+        <v>1725</v>
       </c>
       <c r="E97" t="n">
-        <v>1143.5</v>
+        <v>1840</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-6.25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>KRW-MBL</t>
+          <t>KRW-SOL</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.9341380905014798</v>
+        <v>0.9489011920487446</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D98" t="n">
-        <v>15.3</v>
+        <v>163700</v>
       </c>
       <c r="E98" t="n">
-        <v>15.79</v>
+        <v>174825</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-6.363506363506363</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>KRW-MTL</t>
+          <t>KRW-REP</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.9341243469111594</v>
+        <v>0.9646591740661872</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>2465</v>
+        <v>20860</v>
       </c>
       <c r="E99" t="n">
-        <v>2700</v>
+        <v>22332</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-6.591438294823572</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>KRW-LOOM</t>
+          <t>KRW-NEAR</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9336410863324842</v>
+        <v>0.9645301945417156</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>123</v>
+        <v>18280</v>
       </c>
       <c r="E100" t="n">
-        <v>127.6</v>
+        <v>19765</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-7.513281052365292</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>KRW-NEO</t>
+          <t>KRW-SRM</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.9336048896471647</v>
+        <v>0.9513745225289117</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>33670</v>
+        <v>4125</v>
       </c>
       <c r="E101" t="n">
-        <v>36120</v>
+        <v>4478</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-7.882983474765521</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>KRW-ALGO</t>
+          <t>KRW-AVAX</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9326411591652084</v>
+        <v>0.951463763764316</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D102" t="n">
-        <v>1150</v>
+        <v>119400</v>
       </c>
       <c r="E102" t="n">
-        <v>1191</v>
+        <v>130710</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-8.652742712875831</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>KRW-KNC</t>
+          <t>KRW-VET</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9305956843965902</v>
+        <v>0.9875342221490625</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D103" t="n">
-        <v>4200</v>
+        <v>99</v>
       </c>
       <c r="E103" t="n">
-        <v>4297.5</v>
+        <v>108.45</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-8.713692946058094</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>KRW-NU</t>
+          <t>KRW-KAVA</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9305457421002944</v>
+        <v>0.9492343570514021</v>
       </c>
       <c r="C104" t="n">
         <v>0.8</v>
       </c>
       <c r="D104" t="n">
-        <v>560</v>
+        <v>5575</v>
       </c>
       <c r="E104" t="n">
-        <v>628.2</v>
+        <v>6243</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-10.69998398205991</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>KRW-SNT</t>
+          <t>KRW-GAS</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.9285376875108492</v>
+        <v>0.9880484297712163</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="D105" t="n">
-        <v>93.59999999999999</v>
+        <v>7815</v>
       </c>
       <c r="E105" t="n">
-        <v>94.05</v>
+        <v>8752.5</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-10.71122536418166</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>KRW-IQ</t>
+          <t>KRW-IOST</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.9240695362326017</v>
+        <v>0.9717962045874724</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D106" t="n">
-        <v>14.2</v>
+        <v>51.1</v>
       </c>
       <c r="E106" t="n">
-        <v>15</v>
+        <v>57.28</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-10.7891061452514</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>KRW-ZRX</t>
+          <t>KRW-STRAX</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9239086020343059</v>
+        <v>0.9541393834692071</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="D107" t="n">
-        <v>956</v>
+        <v>1765</v>
       </c>
       <c r="E107" t="n">
-        <v>1009.4</v>
+        <v>1991</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-11.35107985936715</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>KRW-HUM</t>
+          <t>KRW-POWR</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.9203236574863414</v>
+        <v>0.9715097337685406</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D108" t="n">
-        <v>442</v>
+        <v>828</v>
       </c>
       <c r="E108" t="n">
-        <v>400.8</v>
+        <v>937.6</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-11.68941979522184</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>KRW-XEC</t>
+          <t>KRW-ZRX</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.9192967859574246</v>
+        <v>0.9660587175712314</v>
       </c>
       <c r="C109" t="n">
         <v>0.7000000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.116</v>
+        <v>1005</v>
       </c>
       <c r="E109" t="n">
-        <v>0.1199</v>
+        <v>1151.2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-12.69979152189021</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>KRW-CHZ</t>
+          <t>KRW-AAVE</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.9044665573490422</v>
+        <v>0.9561159037657146</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="D110" t="n">
-        <v>352</v>
+        <v>298000</v>
       </c>
       <c r="E110" t="n">
-        <v>400.6</v>
+        <v>361570</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-17.58165777027961</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>KRW-SXP</t>
+          <t>KRW-FCT2</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.9023591448881785</v>
+        <v>0.9674010412031601</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D111" t="n">
-        <v>1960</v>
+        <v>229</v>
       </c>
       <c r="E111" t="n">
-        <v>2120</v>
+        <v>289.2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-20.81604426002766</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>KRW-MFT</t>
+          <t>KRW-ZIL</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.8949614456975031</v>
+        <v>0.8069907080974631</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="D112" t="n">
-        <v>11.9</v>
+        <v>227</v>
       </c>
       <c r="E112" t="n">
-        <v>11.88</v>
+        <v>288.2</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-21.235253296322</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>KRW-BTG</t>
+          <t>KRW-IQ</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.888503425284925</v>
+        <v>0.9240695362326017</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D113" t="n">
-        <v>51910</v>
+        <v>19.2</v>
       </c>
       <c r="E113" t="n">
-        <v>53346</v>
+        <v>24.4</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-21.31147540983607</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>KRW-IOST</t>
+          <t>KRW-CELO</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.8830513250570506</v>
+        <v>999999</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4</v>
+        <v>9999999</v>
       </c>
       <c r="D114" t="n">
-        <v>55.9</v>
+        <v>4250</v>
       </c>
       <c r="E114" t="n">
-        <v>45.36</v>
+        <v>3000003850</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-99.99985833351514</v>
       </c>
     </row>
   </sheetData>
